--- a/Tabela VLAN.xlsx
+++ b/Tabela VLAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C61A2C3-ABD3-4736-B64B-9BB53021EC20}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16A6895B-73BB-44F4-8CF6-4CCE37131745}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -167,6 +167,45 @@
   </si>
   <si>
     <t>Edificio 1</t>
+  </si>
+  <si>
+    <t>Switch-Geral</t>
+  </si>
+  <si>
+    <t>Switch-SalaA1</t>
+  </si>
+  <si>
+    <t>Switch Geral</t>
+  </si>
+  <si>
+    <t>PC1-Gerla</t>
+  </si>
+  <si>
+    <t>F0/1</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>F0/2</t>
+  </si>
+  <si>
+    <t>Phone1</t>
+  </si>
+  <si>
+    <t>Printer1-Geral</t>
+  </si>
+  <si>
+    <t>F0/3</t>
+  </si>
+  <si>
+    <t>Phone1-A1</t>
+  </si>
+  <si>
+    <t>PC2a-A1</t>
+  </si>
+  <si>
+    <t>PC1p-A1</t>
   </si>
 </sst>
 </file>
@@ -547,6 +586,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,60 +665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,32 +981,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
-  <dimension ref="B1:L27"/>
+  <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="24.44140625" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -977,137 +1016,137 @@
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="35">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>20</v>
       </c>
@@ -1118,52 +1157,52 @@
         <v>15</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>30</v>
       </c>
@@ -1174,52 +1213,52 @@
         <v>16</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>40</v>
       </c>
@@ -1230,52 +1269,52 @@
         <v>16</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="34" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>50</v>
       </c>
@@ -1286,52 +1325,52 @@
         <v>17</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="39" t="s">
+      <c r="F15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>60</v>
       </c>
@@ -1342,28 +1381,52 @@
         <v>18</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>70</v>
       </c>
@@ -1374,28 +1437,52 @@
         <v>19</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-    </row>
-    <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <v>80</v>
       </c>
@@ -1406,28 +1493,52 @@
         <v>19</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-    </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>90</v>
       </c>
@@ -1438,66 +1549,138 @@
         <v>20</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="F24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Tabela VLAN.xlsx
+++ b/Tabela VLAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16A6895B-73BB-44F4-8CF6-4CCE37131745}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34CEAD97-CFDF-40C4-B9B1-DFC9690D5D69}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="86">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -145,9 +145,6 @@
     <t>RT-1</t>
   </si>
   <si>
-    <t>Switch-ServicosInternos</t>
-  </si>
-  <si>
     <t>G0/1</t>
   </si>
   <si>
@@ -169,30 +166,12 @@
     <t>Edificio 1</t>
   </si>
   <si>
-    <t>Switch-Geral</t>
-  </si>
-  <si>
-    <t>Switch-SalaA1</t>
-  </si>
-  <si>
-    <t>Switch Geral</t>
-  </si>
-  <si>
-    <t>PC1-Gerla</t>
-  </si>
-  <si>
     <t>F0/1</t>
   </si>
   <si>
-    <t>switch</t>
-  </si>
-  <si>
     <t>F0/2</t>
   </si>
   <si>
-    <t>Phone1</t>
-  </si>
-  <si>
     <t>Printer1-Geral</t>
   </si>
   <si>
@@ -206,6 +185,114 @@
   </si>
   <si>
     <t>PC1p-A1</t>
+  </si>
+  <si>
+    <t>F0/4</t>
+  </si>
+  <si>
+    <t>F0/5</t>
+  </si>
+  <si>
+    <t>F0/6</t>
+  </si>
+  <si>
+    <t>AVAC1-Geral</t>
+  </si>
+  <si>
+    <t>TV1-Geral</t>
+  </si>
+  <si>
+    <t>CCTV1-Geral</t>
+  </si>
+  <si>
+    <t>PC1p-A2</t>
+  </si>
+  <si>
+    <t>PC2a-A2</t>
+  </si>
+  <si>
+    <t>Phone1-A2</t>
+  </si>
+  <si>
+    <t>PC1p-A3</t>
+  </si>
+  <si>
+    <t>PC2a-A3</t>
+  </si>
+  <si>
+    <t>Phone1-A3</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>Phone1-Geral</t>
+  </si>
+  <si>
+    <t>PC1-Geral</t>
+  </si>
+  <si>
+    <t>G0/2</t>
+  </si>
+  <si>
+    <t>Geral-Switch</t>
+  </si>
+  <si>
+    <t>SalaA1-Switch1</t>
+  </si>
+  <si>
+    <t>SalaA2-Switch1</t>
+  </si>
+  <si>
+    <t>SalaA3-Switch1</t>
+  </si>
+  <si>
+    <t>SalaA1-Switch2</t>
+  </si>
+  <si>
+    <t>SalaA1-Switch3</t>
+  </si>
+  <si>
+    <t>SalaA2-Switch2</t>
+  </si>
+  <si>
+    <t>SalaA3-Switch2</t>
+  </si>
+  <si>
+    <t>ServicosInternos-Switch</t>
+  </si>
+  <si>
+    <t>RT3</t>
+  </si>
+  <si>
+    <t>Auditorio-Switch</t>
+  </si>
+  <si>
+    <t>CGestao-Switch</t>
+  </si>
+  <si>
+    <t>DepInformatica-Switch</t>
+  </si>
+  <si>
+    <t>ServAcademicos-Switch</t>
+  </si>
+  <si>
+    <t>SalaProf-Switch</t>
+  </si>
+  <si>
+    <t>LabInformatica-Switch1</t>
+  </si>
+  <si>
+    <t>LabInformatica-Switch2</t>
+  </si>
+  <si>
+    <t>LabInformatica-Switch3</t>
+  </si>
+  <si>
+    <t>LabInformatica-Switch4</t>
+  </si>
+  <si>
+    <t>LabInformatica-Switch5</t>
   </si>
 </sst>
 </file>
@@ -243,7 +330,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -543,11 +630,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -586,9 +700,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,9 +712,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,6 +748,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,6 +780,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,32 +1116,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
-  <dimension ref="B1:L31"/>
+  <dimension ref="B1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1016,27 +1151,27 @@
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="35">
         <v>10</v>
       </c>
@@ -1047,106 +1182,106 @@
         <v>12</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="45"/>
+      <c r="J4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="36"/>
       <c r="C5" s="33"/>
       <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="45"/>
+      <c r="J5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="37"/>
       <c r="C6" s="34"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>20</v>
       </c>
@@ -1157,52 +1292,52 @@
         <v>15</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="45"/>
+      <c r="J8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>30</v>
       </c>
@@ -1213,52 +1348,52 @@
         <v>16</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="45"/>
+      <c r="J10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="45"/>
+      <c r="J11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>40</v>
       </c>
@@ -1269,52 +1404,52 @@
         <v>16</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25" t="s">
+      <c r="I12" s="45"/>
+      <c r="J12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="27" t="s">
+      <c r="H13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="45"/>
+      <c r="J13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>50</v>
       </c>
@@ -1325,52 +1460,52 @@
         <v>17</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="27" t="s">
+      <c r="H14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="L15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>60</v>
       </c>
@@ -1381,52 +1516,52 @@
         <v>18</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="45"/>
+      <c r="J16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="45"/>
+      <c r="J17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>70</v>
       </c>
@@ -1437,52 +1572,52 @@
         <v>19</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14" t="s">
+      <c r="I18" s="45"/>
+      <c r="J18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>80</v>
       </c>
@@ -1493,52 +1628,52 @@
         <v>19</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="14" t="s">
+      <c r="F20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="45"/>
+      <c r="J21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>90</v>
       </c>
@@ -1549,141 +1684,987 @@
         <v>20</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="45"/>
+      <c r="J22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="F23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="45"/>
+      <c r="J23" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="45"/>
+      <c r="J24" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F25" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="45"/>
+      <c r="J25" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F27" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="45"/>
+      <c r="J27" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14" t="s">
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="45"/>
+      <c r="J28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F29" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="45"/>
+      <c r="J29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F30" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="45"/>
+      <c r="J30" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F27" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F29" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F31" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="45"/>
+      <c r="J31" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F32" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="45"/>
+      <c r="J32" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F33" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="45"/>
+      <c r="J33" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="45"/>
+      <c r="J34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F35" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="45"/>
+      <c r="J35" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F36" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="45"/>
+      <c r="J36" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F37" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="45"/>
+      <c r="J37" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F38" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="45"/>
+      <c r="J38" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F39" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="23"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F40" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="23"/>
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="23"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="47"/>
+      <c r="J42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F43" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F44" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F46" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="41"/>
+      <c r="J46" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F47" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="41"/>
+      <c r="J47" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F48" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="41"/>
+      <c r="J48" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F49" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="41"/>
+      <c r="J49" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F50" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="41"/>
+      <c r="J50" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F51" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="41"/>
+      <c r="J51" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L51" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F52" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F53" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="41"/>
+      <c r="J53" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F54" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="41"/>
+      <c r="J54" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L54" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F55" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="23"/>
+      <c r="L55" s="25"/>
+    </row>
+    <row r="56" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F56" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F57" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+    </row>
+    <row r="58" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F58" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F59" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+    </row>
+    <row r="60" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F60" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+    </row>
+    <row r="61" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F61" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+    </row>
+    <row r="62" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F62" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F63" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F64" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F65" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+    </row>
+    <row r="66" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F66" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+    </row>
+    <row r="67" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F67" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+    </row>
+    <row r="68" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F68" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+    </row>
+    <row r="69" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F69" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+    </row>
+    <row r="70" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F70" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+    </row>
+    <row r="71" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F71" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+    </row>
+    <row r="72" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F72" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+    </row>
+    <row r="73" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F73" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F74" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+    </row>
+    <row r="75" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F75" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+    </row>
+    <row r="76" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F76" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+    </row>
+    <row r="77" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F77" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+    </row>
+    <row r="78" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F78" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="F43:L43"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B2:D2"/>
